--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,12 @@
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Confirmation Name&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Upload Sponsor Covenant</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Upload Sponsor Covenant&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>account_name</t>
   </si>
   <si>
@@ -135,6 +141,12 @@
   </si>
   <si>
     <t>candidate_events.5.verified</t>
+  </si>
+  <si>
+    <t>candidate_events.6.completed_date</t>
+  </si>
+  <si>
+    <t>candidate_events.6.verified</t>
   </si>
   <si>
     <t>vickikristoff</t>
@@ -1500,10 +1512,18 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42674</v>
+      </c>
+      <c r="C8" s="4">
+        <v>42658</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>15</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
@@ -1542,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1573,120 +1593,128 @@
     <col min="23" max="23" width="18.6719" style="6" customWidth="1"/>
     <col min="24" max="24" width="18.6719" style="6" customWidth="1"/>
     <col min="25" max="25" width="18.6719" style="6" customWidth="1"/>
-    <col min="26" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="26" max="26" width="18.6719" style="6" customWidth="1"/>
+    <col min="27" max="27" width="18.6719" style="6" customWidth="1"/>
+    <col min="28" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="14.6" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" s="3">
         <v>27502</v>
@@ -1717,41 +1745,45 @@
       <c r="Y2" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.6" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M3" s="3">
         <v>27555</v>
@@ -1784,37 +1816,41 @@
       <c r="Y3" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>10</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M4" s="3">
         <v>47129</v>
@@ -1834,6 +1870,12 @@
       </c>
       <c r="Y4" t="b" s="7">
         <v>1</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>42736</v>
+      </c>
+      <c r="AA4" t="b" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.6" customHeight="1">
@@ -1862,6 +1904,8 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" s="3"/>
@@ -1889,6 +1933,8 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
     </row>
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" s="3"/>
@@ -1916,6 +1962,8 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
       <c r="A8" s="3"/>
@@ -1943,6 +1991,8 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
       <c r="A9" s="3"/>
@@ -1970,6 +2020,8 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
       <c r="A10" s="3"/>
@@ -1997,6 +2049,8 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -56,12 +56,6 @@
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Upload certificate&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Confirmation Name</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Confirmation Name&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Upload Sponsor Covenant</t>
   </si>
   <si>
@@ -141,12 +135,6 @@
   </si>
   <si>
     <t>candidate_events.5.verified</t>
-  </si>
-  <si>
-    <t>candidate_events.6.completed_date</t>
-  </si>
-  <si>
-    <t>candidate_events.6.verified</t>
   </si>
   <si>
     <t>vickikristoff</t>
@@ -1384,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1500,10 +1488,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="C7" s="4">
-        <v>42625</v>
+        <v>42658</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>13</v>
@@ -1512,18 +1500,10 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>42674</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42658</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>15</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
@@ -1543,14 +1523,6 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="14.6" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1562,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1593,128 +1565,120 @@
     <col min="23" max="23" width="18.6719" style="6" customWidth="1"/>
     <col min="24" max="24" width="18.6719" style="6" customWidth="1"/>
     <col min="25" max="25" width="18.6719" style="6" customWidth="1"/>
-    <col min="26" max="26" width="18.6719" style="6" customWidth="1"/>
-    <col min="27" max="27" width="18.6719" style="6" customWidth="1"/>
-    <col min="28" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="26" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="D1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="E1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="F1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="G1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="H1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="I1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="J1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="K1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="L1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="M1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="N1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="O1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="P1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="Q1" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="R1" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="S1" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="T1" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="U1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="V1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="W1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="X1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="Y1" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="2" ht="14.6" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="F2" t="s" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M2" s="3">
         <v>27502</v>
@@ -1745,45 +1709,41 @@
       <c r="Y2" t="b" s="7">
         <v>0</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" t="b" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" ht="14.6" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M3" s="3">
         <v>27555</v>
@@ -1816,41 +1776,37 @@
       <c r="Y3" t="b" s="7">
         <v>0</v>
       </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" t="b" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>10</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M4" s="3">
         <v>47129</v>
@@ -1866,15 +1822,9 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="4">
-        <v>42729</v>
+        <v>42736</v>
       </c>
       <c r="Y4" t="b" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>42736</v>
-      </c>
-      <c r="AA4" t="b" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1904,8 +1854,6 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
     </row>
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" s="3"/>
@@ -1933,8 +1881,6 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
     </row>
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" s="3"/>
@@ -1962,8 +1908,6 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
       <c r="A8" s="3"/>
@@ -1991,8 +1935,6 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
       <c r="A9" s="3"/>
@@ -2020,8 +1962,6 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
       <c r="A10" s="3"/>
@@ -2049,8 +1989,6 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,12 @@
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Upload Sponsor Covenant&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Pick Confirmation Name</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Pick Confirmation Name&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>account_name</t>
   </si>
   <si>
@@ -135,6 +141,12 @@
   </si>
   <si>
     <t>candidate_events.5.verified</t>
+  </si>
+  <si>
+    <t>candidate_events.6.completed_date</t>
+  </si>
+  <si>
+    <t>candidate_events.6.verified</t>
   </si>
   <si>
     <t>vickikristoff</t>
@@ -1500,10 +1512,18 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42704</v>
+      </c>
+      <c r="C8" s="4">
+        <v>42694</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>15</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
@@ -1534,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1565,120 +1585,128 @@
     <col min="23" max="23" width="18.6719" style="6" customWidth="1"/>
     <col min="24" max="24" width="18.6719" style="6" customWidth="1"/>
     <col min="25" max="25" width="18.6719" style="6" customWidth="1"/>
-    <col min="26" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="26" max="26" width="18.6719" style="6" customWidth="1"/>
+    <col min="27" max="27" width="18.6719" style="6" customWidth="1"/>
+    <col min="28" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="14.6" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" s="3">
         <v>27502</v>
@@ -1709,41 +1737,45 @@
       <c r="Y2" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.6" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M3" s="3">
         <v>27555</v>
@@ -1776,37 +1808,41 @@
       <c r="Y3" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>10</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M4" s="3">
         <v>47129</v>
@@ -1826,6 +1862,12 @@
       </c>
       <c r="Y4" t="b" s="7">
         <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>42729</v>
+      </c>
+      <c r="AA4" t="b" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.6" customHeight="1">
@@ -1854,6 +1896,8 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" s="3"/>
@@ -1881,6 +1925,8 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
     </row>
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" s="3"/>
@@ -1908,6 +1954,8 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
       <c r="A8" s="3"/>
@@ -1935,6 +1983,8 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
       <c r="A9" s="3"/>
@@ -1962,6 +2012,8 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
       <c r="A10" s="3"/>
@@ -1989,6 +2041,8 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,12 @@
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Pick Confirmation Name&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Sponsor and Candidate Conversation</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Sponsor Agreement&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>account_name</t>
   </si>
   <si>
@@ -147,6 +153,12 @@
   </si>
   <si>
     <t>candidate_events.6.verified</t>
+  </si>
+  <si>
+    <t>candidate_events.7.completed_date</t>
+  </si>
+  <si>
+    <t>candidate_events.7.verified</t>
   </si>
   <si>
     <t>vickikristoff</t>
@@ -1528,10 +1540,18 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>42735</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42719</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
@@ -1554,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1587,126 +1607,134 @@
     <col min="25" max="25" width="18.6719" style="6" customWidth="1"/>
     <col min="26" max="26" width="18.6719" style="6" customWidth="1"/>
     <col min="27" max="27" width="18.6719" style="6" customWidth="1"/>
-    <col min="28" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="28" max="28" width="18.6719" style="6" customWidth="1"/>
+    <col min="29" max="29" width="18.6719" style="6" customWidth="1"/>
+    <col min="30" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z1" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AA1" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.6" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M2" s="3">
         <v>27502</v>
@@ -1741,41 +1769,45 @@
       <c r="AA2" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.6" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M3" s="3">
         <v>27555</v>
@@ -1812,37 +1844,41 @@
       <c r="AA3" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>10</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M4" s="3">
         <v>47129</v>
@@ -1868,6 +1904,12 @@
       </c>
       <c r="AA4" t="b" s="7">
         <v>1</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>42760</v>
+      </c>
+      <c r="AC4" t="b" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.6" customHeight="1">
@@ -1898,6 +1940,8 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" s="3"/>
@@ -1927,6 +1971,8 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" s="3"/>
@@ -1956,6 +2002,8 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
       <c r="A8" s="3"/>
@@ -1985,6 +2033,8 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
       <c r="A9" s="3"/>
@@ -2014,6 +2064,8 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
       <c r="A10" s="3"/>
@@ -2043,6 +2095,8 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -74,6 +74,12 @@
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Sponsor Agreement&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Christian Ministry Awareness</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Christian Ministry Awareness&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>account_name</t>
   </si>
   <si>
@@ -159,6 +165,12 @@
   </si>
   <si>
     <t>candidate_events.7.verified</t>
+  </si>
+  <si>
+    <t>candidate_events.8.completed_date</t>
+  </si>
+  <si>
+    <t>candidate_events.8.verified</t>
   </si>
   <si>
     <t>vickikristoff</t>
@@ -1556,10 +1568,18 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42766</v>
+      </c>
+      <c r="C10" s="4">
+        <v>42757</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -1574,7 +1594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1609,132 +1629,140 @@
     <col min="27" max="27" width="18.6719" style="6" customWidth="1"/>
     <col min="28" max="28" width="18.6719" style="6" customWidth="1"/>
     <col min="29" max="29" width="18.6719" style="6" customWidth="1"/>
-    <col min="30" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="30" max="30" width="18.6719" style="6" customWidth="1"/>
+    <col min="31" max="31" width="18.6719" style="6" customWidth="1"/>
+    <col min="32" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z1" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA1" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB1" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC1" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="14.6" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3">
         <v>27502</v>
@@ -1773,41 +1801,45 @@
       <c r="AC2" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="AD2" s="3"/>
+      <c r="AE2" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.6" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3">
         <v>27555</v>
@@ -1848,37 +1880,41 @@
       <c r="AC3" t="b" s="7">
         <v>0</v>
       </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" t="b" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>10</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3">
         <v>47129</v>
@@ -1909,6 +1945,10 @@
         <v>42760</v>
       </c>
       <c r="AC4" t="b" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" t="b" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1942,6 +1982,8 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" s="3"/>
@@ -1973,6 +2015,8 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" s="3"/>
@@ -2004,6 +2048,8 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
       <c r="A8" s="3"/>
@@ -2035,6 +2081,8 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
       <c r="A9" s="3"/>
@@ -2066,6 +2114,8 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
       <c r="A10" s="3"/>
@@ -2097,6 +2147,8 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -83,40 +83,40 @@
     <t>account_name</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>candidate_email</t>
-  </si>
-  <si>
-    <t>parent_email_1</t>
-  </si>
-  <si>
-    <t>parent_email_2</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>attending</t>
-  </si>
-  <si>
-    <t>address.street_1</t>
-  </si>
-  <si>
-    <t>address.street_2</t>
-  </si>
-  <si>
-    <t>address.city</t>
-  </si>
-  <si>
-    <t>address.state</t>
-  </si>
-  <si>
-    <t>address.zip_code</t>
+    <t>candidate_sheet.first_name</t>
+  </si>
+  <si>
+    <t>candidate_sheet.last_name</t>
+  </si>
+  <si>
+    <t>candidate_sheet.candidate_email</t>
+  </si>
+  <si>
+    <t>candidate_sheet.parent_email_1</t>
+  </si>
+  <si>
+    <t>candidate_sheet.parent_email_2</t>
+  </si>
+  <si>
+    <t>candidate_sheet.grade</t>
+  </si>
+  <si>
+    <t>candidate_sheet.attending</t>
+  </si>
+  <si>
+    <t>candidate_sheet.address.street_1</t>
+  </si>
+  <si>
+    <t>candidate_sheet.address.street_2</t>
+  </si>
+  <si>
+    <t>candidate_sheet.address.city</t>
+  </si>
+  <si>
+    <t>candidate_sheet.address.state</t>
+  </si>
+  <si>
+    <t>candidate_sheet.address.zip_code</t>
   </si>
   <si>
     <t>candidate_events.0.completed_date</t>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -47,7 +47,7 @@
     <t>Parent Information Meeting</t>
   </si>
   <si>
-    <t>Fill Out Candidate Information Sheet</t>
+    <t>Candidate Information Sheet</t>
   </si>
   <si>
     <t>Upload Baptismal Certificate</t>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -62,7 +62,7 @@
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Upload Sponsor Covenant&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Pick Confirmation Name</t>
+    <t>Confirmation Name</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Pick Confirmation Name&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -26,7 +26,7 @@
     <t>instructions</t>
   </si>
   <si>
-    <t>Sign Agreement</t>
+    <t>Candidate Covenant Agreement</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;simple text&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -50,7 +50,7 @@
     <t>Candidate Information Sheet</t>
   </si>
   <si>
-    <t>Upload Baptismal Certificate</t>
+    <t>Baptismal Certificate</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Upload certificate&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -56,7 +56,7 @@
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Upload certificate&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Upload Sponsor Covenant</t>
+    <t>Sponsor Covenant</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;em&gt;&lt;strong&gt;Upload Sponsor Covenant&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;</t>

--- a/spec/fixtures/export_with_events/export_with_events.xlsx
+++ b/spec/fixtures/export_with_events/export_with_events.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulkristoff/dev/confirmation/spec/fixtures/export_with_events/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="10880" yWindow="940" windowWidth="15960" windowHeight="16300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Confirmation Events" sheetId="1" r:id="rId4"/>
-    <sheet name="Candidates with events" sheetId="2" r:id="rId5"/>
+    <sheet name="Confirmation Events" sheetId="1" r:id="rId1"/>
+    <sheet name="Candidates with events" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -235,27 +251,26 @@
   <si>
     <t>IN</t>
   </si>
+  <si>
+    <t>candidate_sheet.middle_name</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>baz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -299,61 +314,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,7 +612,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -574,7 +631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -604,7 +661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,9 +882,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -844,7 +907,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -863,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,9 +1173,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1126,7 +1195,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1145,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1400,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,51 +1465,57 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="86.6" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
@@ -1449,14 +1524,14 @@
       <c r="C2" s="4">
         <v>42564</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="86.6" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
@@ -1465,14 +1540,14 @@
       <c r="C3" s="4">
         <v>42493</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" ht="14.6" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4">
@@ -1481,14 +1556,14 @@
       <c r="C4" s="4">
         <v>42524</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="14.6" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4">
@@ -1497,14 +1572,14 @@
       <c r="C5" s="4">
         <v>42416</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="14.6" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
@@ -1513,14 +1588,14 @@
       <c r="C6" s="4">
         <v>42594</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" ht="14.6" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
@@ -1529,14 +1604,14 @@
       <c r="C7" s="4">
         <v>42658</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4">
@@ -1545,14 +1620,14 @@
       <c r="C8" s="4">
         <v>42694</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="14.6" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
@@ -1561,14 +1636,14 @@
       <c r="C9" s="4">
         <v>42719</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="14.6" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4">
@@ -1577,7 +1652,7 @@
       <c r="C10" s="4">
         <v>42757</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
@@ -1585,7 +1660,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1593,333 +1668,331 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.67188" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.1719" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.1719" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.67188" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.3516" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.67188" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.67188" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.1719" style="6" customWidth="1"/>
-    <col min="14" max="14" width="24.1719" style="6" customWidth="1"/>
-    <col min="15" max="15" width="18.6719" style="6" customWidth="1"/>
-    <col min="16" max="16" width="24.1719" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.6719" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.6719" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.6719" style="6" customWidth="1"/>
-    <col min="20" max="20" width="18.6719" style="6" customWidth="1"/>
-    <col min="21" max="21" width="18.6719" style="6" customWidth="1"/>
-    <col min="22" max="22" width="18.6719" style="6" customWidth="1"/>
-    <col min="23" max="23" width="18.6719" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.6719" style="6" customWidth="1"/>
-    <col min="25" max="25" width="18.6719" style="6" customWidth="1"/>
-    <col min="26" max="26" width="18.6719" style="6" customWidth="1"/>
-    <col min="27" max="27" width="18.6719" style="6" customWidth="1"/>
-    <col min="28" max="28" width="18.6719" style="6" customWidth="1"/>
-    <col min="29" max="29" width="18.6719" style="6" customWidth="1"/>
-    <col min="30" max="30" width="18.6719" style="6" customWidth="1"/>
-    <col min="31" max="31" width="18.6719" style="6" customWidth="1"/>
-    <col min="32" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11" style="6" customWidth="1"/>
+    <col min="12" max="13" width="7.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="24.1640625" style="6" customWidth="1"/>
+    <col min="18" max="32" width="18.6640625" style="6" customWidth="1"/>
+    <col min="33" max="257" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" ht="14.6" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s" s="2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>27502</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>42527</v>
       </c>
-      <c r="O2" t="b" s="7">
+      <c r="P2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" t="b" s="7">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" t="b" s="7">
+      <c r="S2" s="3"/>
+      <c r="T2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" t="b" s="7">
+      <c r="U2" s="3"/>
+      <c r="V2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" t="b" s="7">
+      <c r="W2" s="3"/>
+      <c r="X2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" t="b" s="7">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" t="b" s="7">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" t="b" s="7">
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" t="b" s="7">
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.6" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" t="s" s="2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>27555</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" t="b" s="7">
+      <c r="O3" s="3"/>
+      <c r="P3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>42492</v>
       </c>
-      <c r="Q3" t="b" s="7">
+      <c r="R3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>42558</v>
       </c>
-      <c r="S3" t="b" s="7">
+      <c r="T3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" t="b" s="7">
+      <c r="U3" s="4"/>
+      <c r="V3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" t="b" s="7">
+      <c r="W3" s="4"/>
+      <c r="X3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" t="b" s="7">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" t="b" s="7">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" t="b" s="7">
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" t="b" s="7">
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="14.6" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="I4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" t="s" s="2">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>47129</v>
       </c>
-      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1929,30 +2002,31 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="4">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="4">
         <v>42736</v>
       </c>
-      <c r="Y4" t="b" s="7">
+      <c r="Z4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AA4" s="4">
         <v>42729</v>
       </c>
-      <c r="AA4" t="b" s="7">
+      <c r="AB4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AC4" s="4">
         <v>42760</v>
       </c>
-      <c r="AC4" t="b" s="7">
+      <c r="AD4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" t="b" s="7">
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="14.6" customHeight="1">
+    <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1984,8 +2058,9 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
     </row>
-    <row r="6" ht="14.6" customHeight="1">
+    <row r="6" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2017,8 +2092,9 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
     </row>
-    <row r="7" ht="14.6" customHeight="1">
+    <row r="7" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2050,8 +2126,9 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
     </row>
-    <row r="8" ht="14.6" customHeight="1">
+    <row r="8" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2083,8 +2160,9 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
     </row>
-    <row r="9" ht="14.6" customHeight="1">
+    <row r="9" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2116,8 +2194,9 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
     </row>
-    <row r="10" ht="14.6" customHeight="1">
+    <row r="10" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2149,10 +2228,11 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
